--- a/tabular/contributed/190425 GZR TABLE.xlsx
+++ b/tabular/contributed/190425 GZR TABLE.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1360" windowWidth="44180" windowHeight="27120"/>
+    <workbookView xWindow="6520" yWindow="3200" windowWidth="39920" windowHeight="25320"/>
   </bookViews>
   <sheets>
     <sheet name="GRAZOPREVIR" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRAZOPREVIR!$B$1:$R$189</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="181">
   <si>
     <t>Weight of evidence</t>
   </si>
@@ -134,12 +135,6 @@
     <t>168G</t>
   </si>
   <si>
-    <t>Asante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pooled (Asselah) C-EDGE, C-SCAPE, C-CORAL, </t>
-  </si>
-  <si>
     <t>168E</t>
   </si>
   <si>
@@ -200,9 +195,6 @@
     <t>156G</t>
   </si>
   <si>
-    <t>Pooled - C-SURFER, C-EDGE, C-WORTHY, C-SALVAGE</t>
-  </si>
-  <si>
     <t>36L</t>
   </si>
   <si>
@@ -329,12 +321,6 @@
     <t>55A</t>
   </si>
   <si>
-    <t>C-EDGE</t>
-  </si>
-  <si>
-    <t>PN038 + PN039</t>
-  </si>
-  <si>
     <t>IFN/RBV/GZR</t>
   </si>
   <si>
@@ -482,9 +468,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>NCT01353911.</t>
-  </si>
-  <si>
     <t>156M+168G+170I</t>
   </si>
   <si>
@@ -552,13 +535,52 @@
   </si>
   <si>
     <t>EBR/GZR/SOF/RBV</t>
+  </si>
+  <si>
+    <t>C-EDGE CO-INFECTION</t>
+  </si>
+  <si>
+    <t>Pooled1</t>
+  </si>
+  <si>
+    <t>NCT01710501</t>
+  </si>
+  <si>
+    <t>Pooled2</t>
+  </si>
+  <si>
+    <t>Pooled3</t>
+  </si>
+  <si>
+    <t>C-SURFER</t>
+  </si>
+  <si>
+    <t>C-EDGE TN</t>
+  </si>
+  <si>
+    <t>C-SCAPE</t>
+  </si>
+  <si>
+    <t>C-EDGE CO-STAR</t>
+  </si>
+  <si>
+    <t>C‐EDGE IBLD</t>
+  </si>
+  <si>
+    <t>C-CORAL</t>
+  </si>
+  <si>
+    <t>C‐EDGE Head‐2‐head</t>
+  </si>
+  <si>
+    <t>NCT01353911</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +604,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -648,12 +678,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -730,10 +764,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1039,8 +1078,8 @@
   <dimension ref="A1:R237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J201" sqref="J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,9 +1185,7 @@
       <c r="I2" s="13">
         <v>137</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1192,9 +1229,7 @@
       <c r="I3" s="13">
         <v>10</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
         <v>2</v>
       </c>
@@ -1238,9 +1273,7 @@
       <c r="I4" s="13">
         <v>47</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1297,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
@@ -1282,11 +1315,11 @@
         <v>1</v>
       </c>
       <c r="I5" s="13"/>
-      <c r="J5" s="10" t="s">
-        <v>99</v>
+      <c r="J5" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -1308,29 +1341,29 @@
         <v>29</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="K6" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -1341,7 +1374,7 @@
         <v>26423374</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="19"/>
@@ -1354,7 +1387,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>20</v>
@@ -1372,11 +1405,11 @@
         <v>1</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="10" t="s">
-        <v>99</v>
+      <c r="J7" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -1398,7 +1431,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>20</v>
@@ -1416,11 +1449,11 @@
         <v>1</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="10" t="s">
-        <v>99</v>
+      <c r="J8" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -1442,7 +1475,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>21</v>
@@ -1460,11 +1493,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="10" t="s">
-        <v>99</v>
+      <c r="J9" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1486,7 +1519,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>20</v>
@@ -1506,7 +1539,7 @@
         <v>27</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1528,7 +1561,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>21</v>
@@ -1548,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -1570,7 +1603,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>21</v>
@@ -1590,7 +1623,7 @@
         <v>27</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1612,7 +1645,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>21</v>
@@ -1632,7 +1665,7 @@
         <v>27</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1654,7 +1687,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>21</v>
@@ -1674,7 +1707,7 @@
         <v>27</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1696,7 +1729,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>21</v>
@@ -1716,7 +1749,7 @@
         <v>27</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1738,7 +1771,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>21</v>
@@ -1758,7 +1791,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -1780,7 +1813,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>20</v>
@@ -1800,7 +1833,7 @@
         <v>27</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -1822,7 +1855,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>21</v>
@@ -1842,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -1864,7 +1897,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>21</v>
@@ -1884,7 +1917,7 @@
         <v>27</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -1906,7 +1939,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>21</v>
@@ -1926,7 +1959,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -1948,7 +1981,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>20</v>
@@ -1968,7 +2001,7 @@
         <v>27</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -1990,7 +2023,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>21</v>
@@ -2010,7 +2043,7 @@
         <v>27</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
@@ -2032,7 +2065,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>21</v>
@@ -2052,7 +2085,7 @@
         <v>27</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -2074,7 +2107,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>21</v>
@@ -2094,7 +2127,7 @@
         <v>27</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -2125,7 +2158,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>30</v>
@@ -2138,14 +2171,14 @@
         <v>28</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O25">
         <v>29473975</v>
@@ -2162,7 +2195,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
@@ -2182,11 +2215,11 @@
         <v>26</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L26"/>
       <c r="M26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>79</v>
@@ -2206,7 +2239,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>21</v>
@@ -2226,11 +2259,11 @@
         <v>26</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>79</v>
@@ -2250,7 +2283,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>21</v>
@@ -2270,11 +2303,11 @@
         <v>26</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L28"/>
       <c r="M28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>79</v>
@@ -2294,7 +2327,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>20</v>
@@ -2314,11 +2347,11 @@
         <v>26</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L29"/>
       <c r="M29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>79</v>
@@ -2338,7 +2371,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>20</v>
@@ -2358,11 +2391,11 @@
         <v>26</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L30"/>
       <c r="M30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>79</v>
@@ -2382,7 +2415,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>21</v>
@@ -2402,11 +2435,11 @@
         <v>26</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>79</v>
@@ -2426,7 +2459,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>21</v>
@@ -2446,11 +2479,11 @@
         <v>22</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N32" s="20">
         <v>253</v>
@@ -2470,7 +2503,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>20</v>
@@ -2490,11 +2523,11 @@
         <v>22</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L33" s="20"/>
       <c r="M33" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N33" s="20">
         <v>253</v>
@@ -2514,7 +2547,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>20</v>
@@ -2534,11 +2567,11 @@
         <v>22</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L34" s="20"/>
       <c r="M34" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N34" s="20">
         <v>253</v>
@@ -2558,7 +2591,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>21</v>
@@ -2578,11 +2611,11 @@
         <v>22</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N35" s="20">
         <v>253</v>
@@ -2602,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>20</v>
@@ -2622,11 +2655,11 @@
         <v>22</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N36" s="20">
         <v>253</v>
@@ -2646,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>21</v>
@@ -2666,11 +2699,11 @@
         <v>22</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N37" s="20">
         <v>253</v>
@@ -2690,7 +2723,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>21</v>
@@ -2710,11 +2743,11 @@
         <v>22</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N38" s="20">
         <v>253</v>
@@ -2734,7 +2767,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>21</v>
@@ -2754,11 +2787,11 @@
         <v>22</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N39" s="20">
         <v>253</v>
@@ -2778,7 +2811,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>21</v>
@@ -2798,11 +2831,11 @@
         <v>22</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N40" s="20">
         <v>253</v>
@@ -2822,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>21</v>
@@ -2842,11 +2875,11 @@
         <v>22</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N41" s="20">
         <v>253</v>
@@ -2866,7 +2899,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>21</v>
@@ -2886,11 +2919,11 @@
         <v>22</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N42" s="20">
         <v>253</v>
@@ -2910,7 +2943,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>21</v>
@@ -2930,11 +2963,11 @@
         <v>22</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N43" s="20">
         <v>253</v>
@@ -2954,7 +2987,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>21</v>
@@ -2974,11 +3007,11 @@
         <v>22</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N44" s="20">
         <v>253</v>
@@ -2998,7 +3031,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>21</v>
@@ -3018,7 +3051,7 @@
         <v>22</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -3040,7 +3073,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>21</v>
@@ -3060,7 +3093,7 @@
         <v>22</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
@@ -3082,7 +3115,7 @@
         <v>29</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>21</v>
@@ -3102,7 +3135,7 @@
         <v>22</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
@@ -3124,7 +3157,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>21</v>
@@ -3144,7 +3177,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
@@ -3166,7 +3199,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>21</v>
@@ -3186,7 +3219,7 @@
         <v>22</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -3208,7 +3241,7 @@
         <v>29</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>20</v>
@@ -3228,7 +3261,7 @@
         <v>22</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
@@ -3250,7 +3283,7 @@
         <v>29</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>21</v>
@@ -3270,7 +3303,7 @@
         <v>22</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
@@ -3292,7 +3325,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>20</v>
@@ -3312,7 +3345,7 @@
         <v>22</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
@@ -3334,7 +3367,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>21</v>
@@ -3354,7 +3387,7 @@
         <v>22</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
@@ -3376,7 +3409,7 @@
         <v>29</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>20</v>
@@ -3396,7 +3429,7 @@
         <v>22</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
@@ -3418,7 +3451,7 @@
         <v>29</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>21</v>
@@ -3438,7 +3471,7 @@
         <v>22</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
@@ -3460,7 +3493,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>21</v>
@@ -3480,7 +3513,7 @@
         <v>22</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
@@ -3502,7 +3535,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>21</v>
@@ -3522,7 +3555,7 @@
         <v>22</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
@@ -3544,7 +3577,7 @@
         <v>29</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>20</v>
@@ -3561,14 +3594,14 @@
       </c>
       <c r="I58" s="24"/>
       <c r="J58" s="18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L58" s="23"/>
       <c r="M58" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N58" s="23">
         <v>82</v>
@@ -3588,7 +3621,7 @@
         <v>29</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>2</v>
@@ -3634,7 +3667,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>2</v>
@@ -3680,7 +3713,7 @@
         <v>29</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>2</v>
@@ -3726,7 +3759,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>2</v>
@@ -3772,7 +3805,7 @@
         <v>29</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>2</v>
@@ -3910,7 +3943,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>2</v>
@@ -4002,7 +4035,7 @@
         <v>29</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>2</v>
@@ -4048,7 +4081,7 @@
         <v>29</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>2</v>
@@ -4094,7 +4127,7 @@
         <v>29</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>2</v>
@@ -4140,7 +4173,7 @@
         <v>29</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>2</v>
@@ -4186,7 +4219,7 @@
         <v>29</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>2</v>
@@ -4232,7 +4265,7 @@
         <v>29</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>2</v>
@@ -4278,7 +4311,7 @@
         <v>29</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>21</v>
@@ -4295,10 +4328,10 @@
       </c>
       <c r="I74" s="20"/>
       <c r="J74" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K74" s="21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
@@ -4320,7 +4353,7 @@
         <v>29</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>21</v>
@@ -4337,10 +4370,10 @@
       </c>
       <c r="I75"/>
       <c r="J75" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K75" s="21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -4362,7 +4395,7 @@
         <v>29</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>21</v>
@@ -4379,10 +4412,10 @@
       </c>
       <c r="I76"/>
       <c r="J76" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
@@ -4404,7 +4437,7 @@
         <v>29</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>21</v>
@@ -4421,10 +4454,10 @@
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K77" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
@@ -4446,7 +4479,7 @@
         <v>29</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>21</v>
@@ -4463,10 +4496,10 @@
       </c>
       <c r="I78"/>
       <c r="J78" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K78" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L78"/>
       <c r="M78"/>
@@ -4488,7 +4521,7 @@
         <v>29</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>21</v>
@@ -4505,10 +4538,10 @@
       </c>
       <c r="I79"/>
       <c r="J79" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K79" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L79"/>
       <c r="M79"/>
@@ -4547,10 +4580,10 @@
       </c>
       <c r="I80"/>
       <c r="J80" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L80"/>
       <c r="M80"/>
@@ -4589,10 +4622,10 @@
       </c>
       <c r="I81"/>
       <c r="J81" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K81" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L81"/>
       <c r="M81"/>
@@ -4631,10 +4664,10 @@
       </c>
       <c r="I82"/>
       <c r="J82" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K82" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -4656,7 +4689,7 @@
         <v>29</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>20</v>
@@ -4673,10 +4706,10 @@
       </c>
       <c r="I83"/>
       <c r="J83" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -4698,7 +4731,7 @@
         <v>29</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>20</v>
@@ -4715,10 +4748,10 @@
       </c>
       <c r="I84"/>
       <c r="J84" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K84" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
@@ -4740,7 +4773,7 @@
         <v>29</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>20</v>
@@ -4757,10 +4790,10 @@
       </c>
       <c r="I85"/>
       <c r="J85" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K85" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -4782,7 +4815,7 @@
         <v>29</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>21</v>
@@ -4799,10 +4832,10 @@
       </c>
       <c r="I86"/>
       <c r="J86" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K86" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
@@ -4824,7 +4857,7 @@
         <v>29</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>21</v>
@@ -4841,10 +4874,10 @@
       </c>
       <c r="I87"/>
       <c r="J87" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
@@ -4866,7 +4899,7 @@
         <v>29</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D88" s="26" t="s">
         <v>20</v>
@@ -4883,10 +4916,10 @@
       </c>
       <c r="I88"/>
       <c r="J88" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K88" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -4908,7 +4941,7 @@
         <v>29</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>21</v>
@@ -4925,10 +4958,10 @@
       </c>
       <c r="I89"/>
       <c r="J89" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
@@ -4950,7 +4983,7 @@
         <v>29</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>21</v>
@@ -4967,10 +5000,10 @@
       </c>
       <c r="I90"/>
       <c r="J90" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -4992,7 +5025,7 @@
         <v>29</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>21</v>
@@ -5009,10 +5042,10 @@
       </c>
       <c r="I91"/>
       <c r="J91" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -5034,7 +5067,7 @@
         <v>29</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>21</v>
@@ -5051,10 +5084,10 @@
       </c>
       <c r="I92"/>
       <c r="J92" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K92" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -5076,7 +5109,7 @@
         <v>29</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>21</v>
@@ -5093,10 +5126,10 @@
       </c>
       <c r="I93"/>
       <c r="J93" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K93" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -5118,7 +5151,7 @@
         <v>29</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>21</v>
@@ -5135,10 +5168,10 @@
       </c>
       <c r="I94"/>
       <c r="J94" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K94" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -5160,7 +5193,7 @@
         <v>29</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>20</v>
@@ -5177,10 +5210,10 @@
       </c>
       <c r="I95" s="20"/>
       <c r="J95" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K95" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L95" s="20"/>
       <c r="M95" s="20"/>
@@ -5202,7 +5235,7 @@
         <v>29</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>21</v>
@@ -5219,10 +5252,10 @@
       </c>
       <c r="I96"/>
       <c r="J96" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K96" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -5244,7 +5277,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>21</v>
@@ -5261,10 +5294,10 @@
       </c>
       <c r="I97"/>
       <c r="J97" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -5286,7 +5319,7 @@
         <v>29</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>20</v>
@@ -5303,10 +5336,10 @@
       </c>
       <c r="I98"/>
       <c r="J98" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
@@ -5328,7 +5361,7 @@
         <v>29</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>21</v>
@@ -5345,10 +5378,10 @@
       </c>
       <c r="I99"/>
       <c r="J99" s="15" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K99" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -5370,7 +5403,7 @@
         <v>29</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>21</v>
@@ -5387,10 +5420,10 @@
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="17" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L100" s="20"/>
       <c r="M100" s="20"/>
@@ -5412,7 +5445,7 @@
         <v>29</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>21</v>
@@ -5429,10 +5462,10 @@
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="17" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L101" s="20"/>
       <c r="M101" s="20"/>
@@ -5454,7 +5487,7 @@
         <v>29</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>21</v>
@@ -5470,11 +5503,11 @@
         <v>1</v>
       </c>
       <c r="I102"/>
-      <c r="J102" s="9" t="s">
-        <v>56</v>
+      <c r="J102" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -5496,7 +5529,7 @@
         <v>29</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>21</v>
@@ -5512,11 +5545,11 @@
         <v>1</v>
       </c>
       <c r="I103"/>
-      <c r="J103" s="9" t="s">
-        <v>56</v>
+      <c r="J103" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
@@ -5554,11 +5587,11 @@
         <v>1</v>
       </c>
       <c r="I104"/>
-      <c r="J104" s="9" t="s">
-        <v>56</v>
+      <c r="J104" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L104"/>
       <c r="M104"/>
@@ -5580,7 +5613,7 @@
         <v>29</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>21</v>
@@ -5596,11 +5629,11 @@
         <v>1</v>
       </c>
       <c r="I105"/>
-      <c r="J105" s="9" t="s">
-        <v>56</v>
+      <c r="J105" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L105"/>
       <c r="M105"/>
@@ -5622,7 +5655,7 @@
         <v>29</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>21</v>
@@ -5638,11 +5671,11 @@
         <v>1</v>
       </c>
       <c r="I106"/>
-      <c r="J106" s="9" t="s">
-        <v>56</v>
+      <c r="J106" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L106"/>
       <c r="M106"/>
@@ -5680,11 +5713,11 @@
         <v>1</v>
       </c>
       <c r="I107"/>
-      <c r="J107" s="9" t="s">
-        <v>56</v>
+      <c r="J107" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L107"/>
       <c r="M107"/>
@@ -5706,7 +5739,7 @@
         <v>29</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>21</v>
@@ -5722,11 +5755,11 @@
         <v>1</v>
       </c>
       <c r="I108"/>
-      <c r="J108" s="9" t="s">
-        <v>56</v>
+      <c r="J108" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -5764,11 +5797,11 @@
         <v>1</v>
       </c>
       <c r="I109"/>
-      <c r="J109" s="9" t="s">
-        <v>56</v>
+      <c r="J109" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L109"/>
       <c r="M109"/>
@@ -5790,7 +5823,7 @@
         <v>29</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>21</v>
@@ -5806,11 +5839,11 @@
         <v>1</v>
       </c>
       <c r="I110"/>
-      <c r="J110" s="9" t="s">
-        <v>56</v>
+      <c r="J110" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L110"/>
       <c r="M110"/>
@@ -5832,7 +5865,7 @@
         <v>29</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>21</v>
@@ -5848,11 +5881,11 @@
         <v>1</v>
       </c>
       <c r="I111"/>
-      <c r="J111" s="9" t="s">
-        <v>56</v>
+      <c r="J111" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
@@ -5874,7 +5907,7 @@
         <v>29</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>21</v>
@@ -5891,10 +5924,10 @@
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="17" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="K112" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L112" s="20"/>
       <c r="M112" s="20"/>
@@ -5916,7 +5949,7 @@
         <v>29</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>20</v>
@@ -5933,10 +5966,10 @@
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="17" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L113" s="20"/>
       <c r="M113" s="20"/>
@@ -5958,7 +5991,7 @@
         <v>29</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>21</v>
@@ -5975,10 +6008,10 @@
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="17" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L114" s="20"/>
       <c r="M114" s="20"/>
@@ -6000,7 +6033,7 @@
         <v>29</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>20</v>
@@ -6016,11 +6049,11 @@
         <v>1</v>
       </c>
       <c r="I115"/>
-      <c r="J115" s="9" t="s">
-        <v>56</v>
+      <c r="J115" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L115"/>
       <c r="M115"/>
@@ -6042,7 +6075,7 @@
         <v>29</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>21</v>
@@ -6058,11 +6091,11 @@
         <v>1</v>
       </c>
       <c r="I116"/>
-      <c r="J116" s="9" t="s">
-        <v>56</v>
+      <c r="J116" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L116"/>
       <c r="M116"/>
@@ -6084,7 +6117,7 @@
         <v>29</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>20</v>
@@ -6100,11 +6133,11 @@
         <v>1</v>
       </c>
       <c r="I117"/>
-      <c r="J117" s="9" t="s">
-        <v>56</v>
+      <c r="J117" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L117"/>
       <c r="M117"/>
@@ -6126,7 +6159,7 @@
         <v>29</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>21</v>
@@ -6142,11 +6175,11 @@
         <v>1</v>
       </c>
       <c r="I118"/>
-      <c r="J118" s="9" t="s">
-        <v>56</v>
+      <c r="J118" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L118"/>
       <c r="M118"/>
@@ -6168,7 +6201,7 @@
         <v>29</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>21</v>
@@ -6184,11 +6217,11 @@
         <v>1</v>
       </c>
       <c r="I119"/>
-      <c r="J119" s="9" t="s">
-        <v>56</v>
+      <c r="J119" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L119"/>
       <c r="M119"/>
@@ -6210,7 +6243,7 @@
         <v>29</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>21</v>
@@ -6226,11 +6259,11 @@
         <v>1</v>
       </c>
       <c r="I120"/>
-      <c r="J120" s="9" t="s">
-        <v>56</v>
+      <c r="J120" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L120"/>
       <c r="M120"/>
@@ -6252,7 +6285,7 @@
         <v>29</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>21</v>
@@ -6268,11 +6301,11 @@
         <v>1</v>
       </c>
       <c r="I121"/>
-      <c r="J121" s="9" t="s">
-        <v>56</v>
+      <c r="J121" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L121"/>
       <c r="M121"/>
@@ -6294,7 +6327,7 @@
         <v>29</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>21</v>
@@ -6310,15 +6343,15 @@
         <v>1</v>
       </c>
       <c r="I122"/>
-      <c r="J122" s="9" t="s">
-        <v>56</v>
+      <c r="J122" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L122"/>
       <c r="M122" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N122" s="20">
         <v>835</v>
@@ -6338,7 +6371,7 @@
         <v>29</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>21</v>
@@ -6354,11 +6387,11 @@
         <v>1</v>
       </c>
       <c r="I123"/>
-      <c r="J123" s="9" t="s">
-        <v>56</v>
+      <c r="J123" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L123"/>
       <c r="M123"/>
@@ -6380,7 +6413,7 @@
         <v>29</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>21</v>
@@ -6396,11 +6429,11 @@
         <v>1</v>
       </c>
       <c r="I124"/>
-      <c r="J124" s="9" t="s">
-        <v>56</v>
+      <c r="J124" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K124" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L124"/>
       <c r="M124"/>
@@ -6438,11 +6471,11 @@
         <v>1</v>
       </c>
       <c r="I125"/>
-      <c r="J125" s="9" t="s">
-        <v>56</v>
+      <c r="J125" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L125"/>
       <c r="M125"/>
@@ -6464,7 +6497,7 @@
         <v>29</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>21</v>
@@ -6480,11 +6513,11 @@
         <v>1</v>
       </c>
       <c r="I126"/>
-      <c r="J126" s="9" t="s">
-        <v>56</v>
+      <c r="J126" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L126"/>
       <c r="M126"/>
@@ -6506,7 +6539,7 @@
         <v>29</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>20</v>
@@ -6522,11 +6555,11 @@
         <v>1</v>
       </c>
       <c r="I127"/>
-      <c r="J127" s="9" t="s">
-        <v>56</v>
+      <c r="J127" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L127"/>
       <c r="M127"/>
@@ -6564,11 +6597,11 @@
         <v>1</v>
       </c>
       <c r="I128"/>
-      <c r="J128" s="9" t="s">
-        <v>56</v>
+      <c r="J128" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L128"/>
       <c r="M128"/>
@@ -6590,7 +6623,7 @@
         <v>29</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>20</v>
@@ -6606,11 +6639,11 @@
         <v>1</v>
       </c>
       <c r="I129"/>
-      <c r="J129" s="9" t="s">
-        <v>56</v>
+      <c r="J129" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K129" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L129"/>
       <c r="M129"/>
@@ -6648,11 +6681,11 @@
         <v>1</v>
       </c>
       <c r="I130"/>
-      <c r="J130" s="9" t="s">
-        <v>56</v>
+      <c r="J130" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K130" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L130"/>
       <c r="M130"/>
@@ -6674,7 +6707,7 @@
         <v>29</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>21</v>
@@ -6690,11 +6723,11 @@
         <v>1</v>
       </c>
       <c r="I131"/>
-      <c r="J131" s="9" t="s">
-        <v>56</v>
+      <c r="J131" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K131" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L131"/>
       <c r="M131"/>
@@ -6716,7 +6749,7 @@
         <v>29</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>20</v>
@@ -6732,11 +6765,11 @@
         <v>1</v>
       </c>
       <c r="I132"/>
-      <c r="J132" s="9" t="s">
-        <v>56</v>
+      <c r="J132" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K132" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L132"/>
       <c r="M132"/>
@@ -6758,7 +6791,7 @@
         <v>29</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>20</v>
@@ -6774,11 +6807,11 @@
         <v>1</v>
       </c>
       <c r="I133"/>
-      <c r="J133" s="9" t="s">
-        <v>56</v>
+      <c r="J133" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K133" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L133"/>
       <c r="M133"/>
@@ -6800,7 +6833,7 @@
         <v>29</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>21</v>
@@ -6816,11 +6849,11 @@
         <v>1</v>
       </c>
       <c r="I134"/>
-      <c r="J134" s="9" t="s">
-        <v>56</v>
+      <c r="J134" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K134" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L134"/>
       <c r="M134"/>
@@ -6842,7 +6875,7 @@
         <v>29</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>20</v>
@@ -6858,11 +6891,11 @@
         <v>1</v>
       </c>
       <c r="I135"/>
-      <c r="J135" s="9" t="s">
-        <v>56</v>
+      <c r="J135" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K135" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L135"/>
       <c r="M135"/>
@@ -6884,7 +6917,7 @@
         <v>29</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>21</v>
@@ -6900,11 +6933,11 @@
         <v>1</v>
       </c>
       <c r="I136"/>
-      <c r="J136" s="9" t="s">
-        <v>56</v>
+      <c r="J136" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K136" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L136"/>
       <c r="M136"/>
@@ -6926,7 +6959,7 @@
         <v>29</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>20</v>
@@ -6942,11 +6975,11 @@
         <v>1</v>
       </c>
       <c r="I137"/>
-      <c r="J137" s="9" t="s">
-        <v>56</v>
+      <c r="J137" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K137" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L137"/>
       <c r="M137"/>
@@ -6968,7 +7001,7 @@
         <v>29</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>21</v>
@@ -6984,11 +7017,11 @@
         <v>1</v>
       </c>
       <c r="I138"/>
-      <c r="J138" s="9" t="s">
-        <v>56</v>
+      <c r="J138" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K138" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L138"/>
       <c r="M138"/>
@@ -7010,7 +7043,7 @@
         <v>29</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>21</v>
@@ -7026,11 +7059,11 @@
         <v>1</v>
       </c>
       <c r="I139"/>
-      <c r="J139" s="9" t="s">
-        <v>56</v>
+      <c r="J139" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K139" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L139"/>
       <c r="M139"/>
@@ -7052,7 +7085,7 @@
         <v>29</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>21</v>
@@ -7068,11 +7101,11 @@
         <v>1</v>
       </c>
       <c r="I140"/>
-      <c r="J140" s="9" t="s">
-        <v>56</v>
+      <c r="J140" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K140" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L140"/>
       <c r="M140"/>
@@ -7094,7 +7127,7 @@
         <v>29</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>21</v>
@@ -7110,11 +7143,11 @@
         <v>1</v>
       </c>
       <c r="I141"/>
-      <c r="J141" s="9" t="s">
-        <v>56</v>
+      <c r="J141" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K141" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L141"/>
       <c r="M141"/>
@@ -7136,7 +7169,7 @@
         <v>29</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>20</v>
@@ -7152,11 +7185,11 @@
         <v>1</v>
       </c>
       <c r="I142"/>
-      <c r="J142" s="9" t="s">
-        <v>56</v>
+      <c r="J142" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K142" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L142"/>
       <c r="M142"/>
@@ -7178,7 +7211,7 @@
         <v>29</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>20</v>
@@ -7194,11 +7227,11 @@
         <v>1</v>
       </c>
       <c r="I143"/>
-      <c r="J143" s="9" t="s">
-        <v>56</v>
+      <c r="J143" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K143" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L143"/>
       <c r="M143"/>
@@ -7220,7 +7253,7 @@
         <v>29</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>20</v>
@@ -7236,11 +7269,11 @@
         <v>1</v>
       </c>
       <c r="I144"/>
-      <c r="J144" s="9" t="s">
-        <v>56</v>
+      <c r="J144" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K144" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L144"/>
       <c r="M144"/>
@@ -7262,7 +7295,7 @@
         <v>29</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>21</v>
@@ -7278,11 +7311,11 @@
         <v>1</v>
       </c>
       <c r="I145"/>
-      <c r="J145" s="9" t="s">
-        <v>56</v>
+      <c r="J145" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K145" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L145"/>
       <c r="M145"/>
@@ -7304,7 +7337,7 @@
         <v>29</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>20</v>
@@ -7320,11 +7353,11 @@
         <v>1</v>
       </c>
       <c r="I146"/>
-      <c r="J146" s="9" t="s">
-        <v>56</v>
+      <c r="J146" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K146" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L146"/>
       <c r="M146"/>
@@ -7346,7 +7379,7 @@
         <v>29</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>21</v>
@@ -7362,11 +7395,11 @@
         <v>1</v>
       </c>
       <c r="I147"/>
-      <c r="J147" s="9" t="s">
-        <v>56</v>
+      <c r="J147" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K147" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L147"/>
       <c r="M147"/>
@@ -7388,7 +7421,7 @@
         <v>29</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>21</v>
@@ -7404,11 +7437,11 @@
         <v>1</v>
       </c>
       <c r="I148"/>
-      <c r="J148" s="9" t="s">
-        <v>56</v>
+      <c r="J148" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K148" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L148"/>
       <c r="M148"/>
@@ -7430,7 +7463,7 @@
         <v>29</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D149" s="17" t="s">
         <v>21</v>
@@ -7447,10 +7480,10 @@
       </c>
       <c r="I149" s="20"/>
       <c r="J149" s="17" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="K149" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L149" s="20"/>
       <c r="M149" s="20"/>
@@ -7472,7 +7505,7 @@
         <v>29</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>21</v>
@@ -7488,11 +7521,11 @@
         <v>1</v>
       </c>
       <c r="I150"/>
-      <c r="J150" s="9" t="s">
-        <v>56</v>
+      <c r="J150" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K150" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L150"/>
       <c r="M150"/>
@@ -7514,7 +7547,7 @@
         <v>29</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>21</v>
@@ -7530,11 +7563,11 @@
         <v>1</v>
       </c>
       <c r="I151"/>
-      <c r="J151" s="9" t="s">
-        <v>56</v>
+      <c r="J151" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K151" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L151"/>
       <c r="M151"/>
@@ -7556,7 +7589,7 @@
         <v>29</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>21</v>
@@ -7572,11 +7605,11 @@
         <v>1</v>
       </c>
       <c r="I152"/>
-      <c r="J152" s="9" t="s">
-        <v>56</v>
+      <c r="J152" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K152" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L152"/>
       <c r="M152"/>
@@ -7598,7 +7631,7 @@
         <v>29</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>21</v>
@@ -7614,11 +7647,11 @@
         <v>1</v>
       </c>
       <c r="I153"/>
-      <c r="J153" s="9" t="s">
-        <v>56</v>
+      <c r="J153" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K153" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L153"/>
       <c r="M153"/>
@@ -7640,7 +7673,7 @@
         <v>29</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>20</v>
@@ -7656,11 +7689,11 @@
         <v>1</v>
       </c>
       <c r="I154"/>
-      <c r="J154" s="9" t="s">
-        <v>56</v>
+      <c r="J154" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K154" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L154"/>
       <c r="M154"/>
@@ -7682,7 +7715,7 @@
         <v>29</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>21</v>
@@ -7698,11 +7731,11 @@
         <v>1</v>
       </c>
       <c r="I155"/>
-      <c r="J155" s="9" t="s">
-        <v>56</v>
+      <c r="J155" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K155" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L155"/>
       <c r="M155"/>
@@ -7724,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>21</v>
@@ -7740,11 +7773,11 @@
         <v>1</v>
       </c>
       <c r="I156"/>
-      <c r="J156" s="9" t="s">
-        <v>56</v>
+      <c r="J156" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K156" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L156"/>
       <c r="M156"/>
@@ -7766,7 +7799,7 @@
         <v>29</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>20</v>
@@ -7782,16 +7815,16 @@
         <v>1</v>
       </c>
       <c r="I157"/>
-      <c r="J157" s="9" t="s">
-        <v>56</v>
+      <c r="J157" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K157" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L157"/>
       <c r="M157"/>
       <c r="N157" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O157">
         <v>28193518</v>
@@ -7808,7 +7841,7 @@
         <v>29</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>21</v>
@@ -7824,16 +7857,16 @@
         <v>1</v>
       </c>
       <c r="I158"/>
-      <c r="J158" s="9" t="s">
-        <v>56</v>
+      <c r="J158" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K158" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L158"/>
       <c r="M158"/>
       <c r="N158" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O158">
         <v>28193518</v>
@@ -7850,7 +7883,7 @@
         <v>29</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>21</v>
@@ -7866,16 +7899,16 @@
         <v>1</v>
       </c>
       <c r="I159"/>
-      <c r="J159" s="9" t="s">
-        <v>56</v>
+      <c r="J159" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K159" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L159"/>
       <c r="M159"/>
       <c r="N159" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O159">
         <v>28193518</v>
@@ -7892,7 +7925,7 @@
         <v>29</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>21</v>
@@ -7908,16 +7941,16 @@
         <v>1</v>
       </c>
       <c r="I160"/>
-      <c r="J160" s="9" t="s">
-        <v>56</v>
+      <c r="J160" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K160" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L160"/>
       <c r="M160"/>
       <c r="N160" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O160">
         <v>28193518</v>
@@ -7934,7 +7967,7 @@
         <v>29</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>21</v>
@@ -7950,16 +7983,16 @@
         <v>1</v>
       </c>
       <c r="I161"/>
-      <c r="J161" s="9" t="s">
-        <v>56</v>
+      <c r="J161" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K161" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L161"/>
       <c r="M161"/>
       <c r="N161" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O161">
         <v>28193518</v>
@@ -7976,7 +8009,7 @@
         <v>29</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>21</v>
@@ -7992,16 +8025,16 @@
         <v>1</v>
       </c>
       <c r="I162"/>
-      <c r="J162" s="9" t="s">
-        <v>56</v>
+      <c r="J162" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K162" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L162"/>
       <c r="M162"/>
       <c r="N162" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O162">
         <v>28193518</v>
@@ -8018,7 +8051,7 @@
         <v>29</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>21</v>
@@ -8034,16 +8067,16 @@
         <v>1</v>
       </c>
       <c r="I163"/>
-      <c r="J163" s="9" t="s">
-        <v>56</v>
+      <c r="J163" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K163" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L163"/>
       <c r="M163"/>
       <c r="N163" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O163">
         <v>28193518</v>
@@ -8060,7 +8093,7 @@
         <v>29</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>21</v>
@@ -8076,16 +8109,16 @@
         <v>1</v>
       </c>
       <c r="I164"/>
-      <c r="J164" s="9" t="s">
-        <v>56</v>
+      <c r="J164" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K164" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L164"/>
       <c r="M164"/>
       <c r="N164" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O164">
         <v>28193518</v>
@@ -8102,7 +8135,7 @@
         <v>29</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>21</v>
@@ -8119,10 +8152,10 @@
       </c>
       <c r="I165"/>
       <c r="J165" s="9" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L165"/>
       <c r="M165"/>
@@ -8144,7 +8177,7 @@
         <v>29</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>21</v>
@@ -8161,10 +8194,10 @@
       </c>
       <c r="I166"/>
       <c r="J166" s="9" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="K166" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L166"/>
       <c r="M166"/>
@@ -8186,7 +8219,7 @@
         <v>29</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>21</v>
@@ -8203,10 +8236,10 @@
       </c>
       <c r="I167"/>
       <c r="J167" s="9" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="K167" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L167"/>
       <c r="M167"/>
@@ -8245,10 +8278,10 @@
       </c>
       <c r="I168"/>
       <c r="J168" s="9" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="K168" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L168"/>
       <c r="M168"/>
@@ -8270,7 +8303,7 @@
         <v>29</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>20</v>
@@ -8287,10 +8320,10 @@
       </c>
       <c r="I169"/>
       <c r="J169" s="9" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="K169" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L169"/>
       <c r="M169"/>
@@ -8329,10 +8362,10 @@
       </c>
       <c r="I170"/>
       <c r="J170" s="9" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="K170" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L170"/>
       <c r="M170"/>
@@ -8354,7 +8387,7 @@
         <v>29</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D171" s="18" t="s">
         <v>2</v>
@@ -8400,7 +8433,7 @@
         <v>29</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>2</v>
@@ -8446,7 +8479,7 @@
         <v>29</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D173" s="26" t="s">
         <v>2</v>
@@ -8492,7 +8525,7 @@
         <v>29</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D174" s="26" t="s">
         <v>2</v>
@@ -8538,7 +8571,7 @@
         <v>29</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D175" s="26" t="s">
         <v>2</v>
@@ -8584,7 +8617,7 @@
         <v>29</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D176" s="26" t="s">
         <v>2</v>
@@ -8722,7 +8755,7 @@
         <v>29</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D179" s="26" t="s">
         <v>2</v>
@@ -8814,7 +8847,7 @@
         <v>29</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D181" s="26" t="s">
         <v>2</v>
@@ -8906,7 +8939,7 @@
         <v>29</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D183" s="26" t="s">
         <v>2</v>
@@ -8952,7 +8985,7 @@
         <v>29</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D184" s="26" t="s">
         <v>2</v>
@@ -8998,7 +9031,7 @@
         <v>29</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D185" s="26" t="s">
         <v>2</v>
@@ -9044,7 +9077,7 @@
         <v>29</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D186" s="26" t="s">
         <v>2</v>
@@ -9090,7 +9123,7 @@
         <v>29</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D187" s="26" t="s">
         <v>2</v>
@@ -9136,7 +9169,7 @@
         <v>29</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D188" s="26" t="s">
         <v>2</v>
@@ -9182,7 +9215,7 @@
         <v>29</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D189" s="26" t="s">
         <v>2</v>
@@ -9228,7 +9261,7 @@
         <v>29</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D190" s="26" t="s">
         <v>2</v>
@@ -9274,7 +9307,7 @@
         <v>29</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D191" s="26" t="s">
         <v>2</v>
@@ -9320,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D192" s="18" t="s">
         <v>20</v>
@@ -9339,10 +9372,10 @@
         <v>2</v>
       </c>
       <c r="J192" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K192" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L192" s="20"/>
       <c r="M192" s="20"/>
@@ -9364,7 +9397,7 @@
         <v>29</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D193" s="18" t="s">
         <v>20</v>
@@ -9383,10 +9416,10 @@
         <v>2</v>
       </c>
       <c r="J193" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K193" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L193" s="23"/>
       <c r="M193" s="23"/>
@@ -9408,7 +9441,7 @@
         <v>29</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D194" s="18" t="s">
         <v>20</v>
@@ -9427,10 +9460,10 @@
         <v>2</v>
       </c>
       <c r="J194" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K194" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L194" s="23"/>
       <c r="M194" s="23"/>
@@ -9452,7 +9485,7 @@
         <v>29</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D195" s="18" t="s">
         <v>20</v>
@@ -9471,10 +9504,10 @@
         <v>2</v>
       </c>
       <c r="J195" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K195" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L195" s="23"/>
       <c r="M195" s="23"/>
@@ -9496,7 +9529,7 @@
         <v>29</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D196" s="18" t="s">
         <v>20</v>
@@ -9515,10 +9548,10 @@
         <v>2</v>
       </c>
       <c r="J196" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K196" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L196" s="23"/>
       <c r="M196" s="23"/>
@@ -9540,7 +9573,7 @@
         <v>29</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D197" s="18" t="s">
         <v>20</v>
@@ -9559,10 +9592,10 @@
         <v>2</v>
       </c>
       <c r="J197" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K197" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L197" s="23"/>
       <c r="M197" s="23"/>
@@ -9584,7 +9617,7 @@
         <v>29</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D198" s="26" t="s">
         <v>21</v>
@@ -9602,10 +9635,10 @@
         <v>2</v>
       </c>
       <c r="J198" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K198" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N198" s="20">
         <v>266</v>
@@ -9622,7 +9655,7 @@
         <v>29</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D199" s="26" t="s">
         <v>21</v>
@@ -9640,10 +9673,10 @@
         <v>2</v>
       </c>
       <c r="J199" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K199" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N199" s="20">
         <v>266</v>
@@ -9660,7 +9693,7 @@
         <v>29</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D200" s="26" t="s">
         <v>20</v>
@@ -9679,10 +9712,10 @@
         <v>2</v>
       </c>
       <c r="J200" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K200" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L200"/>
       <c r="M200"/>
@@ -9704,7 +9737,7 @@
         <v>29</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D201" s="26" t="s">
         <v>20</v>
@@ -9722,10 +9755,10 @@
         <v>2</v>
       </c>
       <c r="J201" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K201" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N201" s="20">
         <v>266</v>
@@ -9742,7 +9775,7 @@
         <v>29</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D202" s="26" t="s">
         <v>21</v>
@@ -9760,10 +9793,10 @@
         <v>2</v>
       </c>
       <c r="J202" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K202" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N202" s="20">
         <v>266</v>
@@ -9780,7 +9813,7 @@
         <v>29</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D203" s="26" t="s">
         <v>20</v>
@@ -9798,10 +9831,10 @@
         <v>2</v>
       </c>
       <c r="J203" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K203" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N203" s="20">
         <v>266</v>
@@ -9818,7 +9851,7 @@
         <v>29</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D204" s="26" t="s">
         <v>21</v>
@@ -9836,10 +9869,10 @@
         <v>2</v>
       </c>
       <c r="J204" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K204" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N204" s="20">
         <v>266</v>
@@ -9856,7 +9889,7 @@
         <v>29</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D205" s="26" t="s">
         <v>21</v>
@@ -9874,10 +9907,10 @@
         <v>2</v>
       </c>
       <c r="J205" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K205" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N205" s="20">
         <v>266</v>
@@ -9894,7 +9927,7 @@
         <v>29</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D206" s="26" t="s">
         <v>21</v>
@@ -9912,10 +9945,10 @@
         <v>2</v>
       </c>
       <c r="J206" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K206" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N206" s="20">
         <v>266</v>
@@ -9932,7 +9965,7 @@
         <v>29</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D207" s="26" t="s">
         <v>21</v>
@@ -9950,10 +9983,10 @@
         <v>2</v>
       </c>
       <c r="J207" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K207" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N207" s="20">
         <v>266</v>
@@ -9970,7 +10003,7 @@
         <v>29</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D208" s="26" t="s">
         <v>21</v>
@@ -9988,10 +10021,10 @@
         <v>2</v>
       </c>
       <c r="J208" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K208" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N208" s="20">
         <v>266</v>
@@ -10008,7 +10041,7 @@
         <v>29</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D209" s="26" t="s">
         <v>21</v>
@@ -10026,10 +10059,10 @@
         <v>2</v>
       </c>
       <c r="J209" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K209" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N209" s="20">
         <v>266</v>
@@ -10046,7 +10079,7 @@
         <v>29</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D210" s="26" t="s">
         <v>21</v>
@@ -10064,10 +10097,10 @@
         <v>2</v>
       </c>
       <c r="J210" s="20" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K210" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N210" s="20">
         <v>266</v>
@@ -10128,7 +10161,7 @@
         <v>29</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D212" s="26" t="s">
         <v>2</v>
@@ -10216,7 +10249,7 @@
         <v>29</v>
       </c>
       <c r="C214" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D214" s="26" t="s">
         <v>2</v>
@@ -10260,7 +10293,7 @@
         <v>29</v>
       </c>
       <c r="C215" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D215" s="26" t="s">
         <v>2</v>
@@ -10304,7 +10337,7 @@
         <v>29</v>
       </c>
       <c r="C216" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D216" s="26" t="s">
         <v>2</v>
@@ -10348,7 +10381,7 @@
         <v>29</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D217" s="26" t="s">
         <v>2</v>
@@ -10392,7 +10425,7 @@
         <v>29</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D218" s="26" t="s">
         <v>2</v>
@@ -10436,7 +10469,7 @@
         <v>29</v>
       </c>
       <c r="C219" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D219" s="26" t="s">
         <v>2</v>
@@ -10480,7 +10513,7 @@
         <v>29</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D220" s="26" t="s">
         <v>2</v>
@@ -10524,7 +10557,7 @@
         <v>29</v>
       </c>
       <c r="C221" s="26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D221" s="26" t="s">
         <v>2</v>
@@ -10568,7 +10601,7 @@
         <v>29</v>
       </c>
       <c r="C222" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D222" s="26" t="s">
         <v>2</v>
@@ -10612,7 +10645,7 @@
         <v>29</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D223" s="26" t="s">
         <v>2</v>
@@ -10656,7 +10689,7 @@
         <v>29</v>
       </c>
       <c r="C224" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D224" s="26" t="s">
         <v>2</v>
@@ -10744,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D226" s="26" t="s">
         <v>2</v>
@@ -10832,7 +10865,7 @@
         <v>29</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D228" s="26" t="s">
         <v>2</v>
@@ -10876,7 +10909,7 @@
         <v>29</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D229" s="26" t="s">
         <v>2</v>
@@ -10920,7 +10953,7 @@
         <v>29</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D230" s="26" t="s">
         <v>2</v>
@@ -10964,7 +10997,7 @@
         <v>29</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D231" s="26" t="s">
         <v>2</v>
@@ -11008,7 +11041,7 @@
         <v>29</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D232" s="26" t="s">
         <v>2</v>
@@ -11052,7 +11085,7 @@
         <v>29</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D233" s="26" t="s">
         <v>2</v>
@@ -11096,7 +11129,7 @@
         <v>29</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D234" s="26" t="s">
         <v>2</v>
@@ -11140,7 +11173,7 @@
         <v>29</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D235" s="26" t="s">
         <v>2</v>
@@ -11184,7 +11217,7 @@
         <v>29</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D236" s="26" t="s">
         <v>2</v>
@@ -11228,7 +11261,7 @@
         <v>29</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D237" s="26" t="s">
         <v>2</v>
@@ -11272,4 +11305,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I4"/>
+  <sheetViews>
+    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabular/contributed/190425 GZR TABLE.xlsx
+++ b/tabular/contributed/190425 GZR TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="3200" windowWidth="39920" windowHeight="25320"/>
+    <workbookView xWindow="15020" yWindow="3480" windowWidth="39920" windowHeight="25320"/>
   </bookViews>
   <sheets>
     <sheet name="GRAZOPREVIR" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="180">
   <si>
     <t>Weight of evidence</t>
   </si>
@@ -177,9 +177,6 @@
     <t>170I</t>
   </si>
   <si>
-    <t>Q80K</t>
-  </si>
-  <si>
     <t>56Y+168Q+170I</t>
   </si>
   <si>
@@ -564,16 +561,16 @@
     <t>C-EDGE CO-STAR</t>
   </si>
   <si>
-    <t>C‐EDGE IBLD</t>
-  </si>
-  <si>
     <t>C-CORAL</t>
   </si>
   <si>
-    <t>C‐EDGE Head‐2‐head</t>
-  </si>
-  <si>
     <t>NCT01353911</t>
+  </si>
+  <si>
+    <t>C-EDGE IBLD</t>
+  </si>
+  <si>
+    <t>C-EDGE Head-2-head</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1075,8 @@
   <dimension ref="A1:R237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J201" sqref="J201"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1297,7 +1294,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
@@ -1316,10 +1313,10 @@
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -1341,7 +1338,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -1360,10 +1357,10 @@
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -1374,7 +1371,7 @@
         <v>26423374</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="19"/>
@@ -1387,7 +1384,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>20</v>
@@ -1406,10 +1403,10 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -1431,7 +1428,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>20</v>
@@ -1450,10 +1447,10 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -1475,7 +1472,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>21</v>
@@ -1494,10 +1491,10 @@
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1519,7 +1516,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>20</v>
@@ -1539,7 +1536,7 @@
         <v>27</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1561,7 +1558,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>21</v>
@@ -1581,7 +1578,7 @@
         <v>27</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -1603,7 +1600,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>21</v>
@@ -1623,7 +1620,7 @@
         <v>27</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1645,7 +1642,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>21</v>
@@ -1665,7 +1662,7 @@
         <v>27</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1707,7 +1704,7 @@
         <v>27</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1729,7 +1726,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>21</v>
@@ -1749,7 +1746,7 @@
         <v>27</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1771,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>21</v>
@@ -1791,7 +1788,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -1813,7 +1810,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>20</v>
@@ -1833,7 +1830,7 @@
         <v>27</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -1855,7 +1852,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>21</v>
@@ -1875,7 +1872,7 @@
         <v>27</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -1897,7 +1894,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>21</v>
@@ -1917,7 +1914,7 @@
         <v>27</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -1939,7 +1936,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>21</v>
@@ -1959,7 +1956,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -1981,7 +1978,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>20</v>
@@ -2001,7 +1998,7 @@
         <v>27</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -2023,7 +2020,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>21</v>
@@ -2043,7 +2040,7 @@
         <v>27</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
@@ -2065,7 +2062,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>21</v>
@@ -2085,7 +2082,7 @@
         <v>27</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -2107,7 +2104,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>21</v>
@@ -2127,7 +2124,7 @@
         <v>27</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -2158,7 +2155,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>30</v>
@@ -2171,14 +2168,14 @@
         <v>28</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O25">
         <v>29473975</v>
@@ -2215,7 +2212,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L26"/>
       <c r="M26" t="s">
@@ -2259,7 +2256,7 @@
         <v>26</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L27"/>
       <c r="M27" t="s">
@@ -2303,7 +2300,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L28"/>
       <c r="M28" t="s">
@@ -2347,7 +2344,7 @@
         <v>26</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L29"/>
       <c r="M29" t="s">
@@ -2391,7 +2388,7 @@
         <v>26</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L30"/>
       <c r="M30" t="s">
@@ -2435,7 +2432,7 @@
         <v>26</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L31"/>
       <c r="M31" t="s">
@@ -2459,7 +2456,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>21</v>
@@ -2479,7 +2476,7 @@
         <v>22</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="20" t="s">
@@ -2523,7 +2520,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L33" s="20"/>
       <c r="M33" s="20" t="s">
@@ -2547,7 +2544,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>20</v>
@@ -2567,7 +2564,7 @@
         <v>22</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L34" s="20"/>
       <c r="M34" s="20" t="s">
@@ -2591,7 +2588,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>21</v>
@@ -2611,7 +2608,7 @@
         <v>22</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="20" t="s">
@@ -2635,7 +2632,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>20</v>
@@ -2655,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="20" t="s">
@@ -2679,7 +2676,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>21</v>
@@ -2699,7 +2696,7 @@
         <v>22</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="20" t="s">
@@ -2723,7 +2720,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>21</v>
@@ -2743,7 +2740,7 @@
         <v>22</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="20" t="s">
@@ -2767,7 +2764,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>21</v>
@@ -2787,7 +2784,7 @@
         <v>22</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="20" t="s">
@@ -2811,7 +2808,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>21</v>
@@ -2831,7 +2828,7 @@
         <v>22</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="20" t="s">
@@ -2855,7 +2852,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>21</v>
@@ -2875,7 +2872,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20" t="s">
@@ -2899,7 +2896,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>21</v>
@@ -2919,7 +2916,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20" t="s">
@@ -2943,7 +2940,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>21</v>
@@ -2963,7 +2960,7 @@
         <v>22</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20" t="s">
@@ -2987,7 +2984,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>21</v>
@@ -3007,7 +3004,7 @@
         <v>22</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20" t="s">
@@ -3031,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>21</v>
@@ -3051,7 +3048,7 @@
         <v>22</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -3093,7 +3090,7 @@
         <v>22</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
@@ -3115,7 +3112,7 @@
         <v>29</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>21</v>
@@ -3135,7 +3132,7 @@
         <v>22</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
@@ -3157,7 +3154,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>21</v>
@@ -3177,7 +3174,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
@@ -3199,7 +3196,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>21</v>
@@ -3219,7 +3216,7 @@
         <v>22</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -3241,7 +3238,7 @@
         <v>29</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>20</v>
@@ -3261,7 +3258,7 @@
         <v>22</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
@@ -3283,7 +3280,7 @@
         <v>29</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>21</v>
@@ -3303,7 +3300,7 @@
         <v>22</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
@@ -3325,7 +3322,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>20</v>
@@ -3345,7 +3342,7 @@
         <v>22</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
@@ -3367,7 +3364,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>21</v>
@@ -3387,7 +3384,7 @@
         <v>22</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
@@ -3409,7 +3406,7 @@
         <v>29</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>20</v>
@@ -3429,7 +3426,7 @@
         <v>22</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
@@ -3451,7 +3448,7 @@
         <v>29</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>21</v>
@@ -3471,7 +3468,7 @@
         <v>22</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
@@ -3493,7 +3490,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>21</v>
@@ -3513,7 +3510,7 @@
         <v>22</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
@@ -3535,7 +3532,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>21</v>
@@ -3555,7 +3552,7 @@
         <v>22</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
@@ -3577,7 +3574,7 @@
         <v>29</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>20</v>
@@ -3594,14 +3591,14 @@
       </c>
       <c r="I58" s="24"/>
       <c r="J58" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L58" s="23"/>
       <c r="M58" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N58" s="23">
         <v>82</v>
@@ -3621,7 +3618,7 @@
         <v>29</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>2</v>
@@ -3667,7 +3664,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>2</v>
@@ -3713,7 +3710,7 @@
         <v>29</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>2</v>
@@ -3759,7 +3756,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>2</v>
@@ -3805,7 +3802,7 @@
         <v>29</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>2</v>
@@ -4035,7 +4032,7 @@
         <v>29</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>2</v>
@@ -4081,7 +4078,7 @@
         <v>29</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>2</v>
@@ -4127,7 +4124,7 @@
         <v>29</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>2</v>
@@ -4219,7 +4216,7 @@
         <v>29</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>2</v>
@@ -4265,7 +4262,7 @@
         <v>29</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>2</v>
@@ -4311,7 +4308,7 @@
         <v>29</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>21</v>
@@ -4328,10 +4325,10 @@
       </c>
       <c r="I74" s="20"/>
       <c r="J74" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K74" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
@@ -4353,7 +4350,7 @@
         <v>29</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>21</v>
@@ -4370,10 +4367,10 @@
       </c>
       <c r="I75"/>
       <c r="J75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K75" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -4395,7 +4392,7 @@
         <v>29</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>21</v>
@@ -4412,10 +4409,10 @@
       </c>
       <c r="I76"/>
       <c r="J76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
@@ -4437,7 +4434,7 @@
         <v>29</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>21</v>
@@ -4454,10 +4451,10 @@
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K77" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
@@ -4479,7 +4476,7 @@
         <v>29</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>21</v>
@@ -4496,10 +4493,10 @@
       </c>
       <c r="I78"/>
       <c r="J78" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K78" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L78"/>
       <c r="M78"/>
@@ -4521,7 +4518,7 @@
         <v>29</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>21</v>
@@ -4538,10 +4535,10 @@
       </c>
       <c r="I79"/>
       <c r="J79" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K79" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L79"/>
       <c r="M79"/>
@@ -4580,10 +4577,10 @@
       </c>
       <c r="I80"/>
       <c r="J80" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L80"/>
       <c r="M80"/>
@@ -4622,10 +4619,10 @@
       </c>
       <c r="I81"/>
       <c r="J81" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K81" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L81"/>
       <c r="M81"/>
@@ -4664,10 +4661,10 @@
       </c>
       <c r="I82"/>
       <c r="J82" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K82" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -4689,7 +4686,7 @@
         <v>29</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>20</v>
@@ -4706,10 +4703,10 @@
       </c>
       <c r="I83"/>
       <c r="J83" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -4731,7 +4728,7 @@
         <v>29</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>20</v>
@@ -4748,10 +4745,10 @@
       </c>
       <c r="I84"/>
       <c r="J84" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K84" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
@@ -4773,7 +4770,7 @@
         <v>29</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>20</v>
@@ -4790,10 +4787,10 @@
       </c>
       <c r="I85"/>
       <c r="J85" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K85" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -4815,7 +4812,7 @@
         <v>29</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>21</v>
@@ -4832,10 +4829,10 @@
       </c>
       <c r="I86"/>
       <c r="J86" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K86" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
@@ -4857,7 +4854,7 @@
         <v>29</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>21</v>
@@ -4874,10 +4871,10 @@
       </c>
       <c r="I87"/>
       <c r="J87" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
@@ -4899,7 +4896,7 @@
         <v>29</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D88" s="26" t="s">
         <v>20</v>
@@ -4916,10 +4913,10 @@
       </c>
       <c r="I88"/>
       <c r="J88" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K88" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -4941,7 +4938,7 @@
         <v>29</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>21</v>
@@ -4958,10 +4955,10 @@
       </c>
       <c r="I89"/>
       <c r="J89" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
@@ -4983,7 +4980,7 @@
         <v>29</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>21</v>
@@ -5000,10 +4997,10 @@
       </c>
       <c r="I90"/>
       <c r="J90" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -5025,7 +5022,7 @@
         <v>29</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>21</v>
@@ -5042,10 +5039,10 @@
       </c>
       <c r="I91"/>
       <c r="J91" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -5067,7 +5064,7 @@
         <v>29</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>21</v>
@@ -5084,10 +5081,10 @@
       </c>
       <c r="I92"/>
       <c r="J92" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K92" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -5109,7 +5106,7 @@
         <v>29</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>21</v>
@@ -5126,10 +5123,10 @@
       </c>
       <c r="I93"/>
       <c r="J93" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K93" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -5151,7 +5148,7 @@
         <v>29</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>21</v>
@@ -5168,10 +5165,10 @@
       </c>
       <c r="I94"/>
       <c r="J94" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K94" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -5193,7 +5190,7 @@
         <v>29</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>20</v>
@@ -5210,10 +5207,10 @@
       </c>
       <c r="I95" s="20"/>
       <c r="J95" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K95" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L95" s="20"/>
       <c r="M95" s="20"/>
@@ -5235,7 +5232,7 @@
         <v>29</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>21</v>
@@ -5252,10 +5249,10 @@
       </c>
       <c r="I96"/>
       <c r="J96" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K96" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -5277,7 +5274,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>21</v>
@@ -5294,10 +5291,10 @@
       </c>
       <c r="I97"/>
       <c r="J97" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -5319,7 +5316,7 @@
         <v>29</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>20</v>
@@ -5336,10 +5333,10 @@
       </c>
       <c r="I98"/>
       <c r="J98" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
@@ -5361,7 +5358,7 @@
         <v>29</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>21</v>
@@ -5378,10 +5375,10 @@
       </c>
       <c r="I99"/>
       <c r="J99" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K99" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -5403,7 +5400,7 @@
         <v>29</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>21</v>
@@ -5420,10 +5417,10 @@
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L100" s="20"/>
       <c r="M100" s="20"/>
@@ -5462,10 +5459,10 @@
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L101" s="20"/>
       <c r="M101" s="20"/>
@@ -5504,10 +5501,10 @@
       </c>
       <c r="I102"/>
       <c r="J102" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -5546,10 +5543,10 @@
       </c>
       <c r="I103"/>
       <c r="J103" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
@@ -5588,10 +5585,10 @@
       </c>
       <c r="I104"/>
       <c r="J104" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L104"/>
       <c r="M104"/>
@@ -5613,7 +5610,7 @@
         <v>29</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>21</v>
@@ -5630,10 +5627,10 @@
       </c>
       <c r="I105"/>
       <c r="J105" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L105"/>
       <c r="M105"/>
@@ -5672,10 +5669,10 @@
       </c>
       <c r="I106"/>
       <c r="J106" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L106"/>
       <c r="M106"/>
@@ -5714,10 +5711,10 @@
       </c>
       <c r="I107"/>
       <c r="J107" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L107"/>
       <c r="M107"/>
@@ -5739,7 +5736,7 @@
         <v>29</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>21</v>
@@ -5756,10 +5753,10 @@
       </c>
       <c r="I108"/>
       <c r="J108" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -5798,10 +5795,10 @@
       </c>
       <c r="I109"/>
       <c r="J109" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L109"/>
       <c r="M109"/>
@@ -5823,7 +5820,7 @@
         <v>29</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>21</v>
@@ -5840,10 +5837,10 @@
       </c>
       <c r="I110"/>
       <c r="J110" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L110"/>
       <c r="M110"/>
@@ -5882,10 +5879,10 @@
       </c>
       <c r="I111"/>
       <c r="J111" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
@@ -5907,7 +5904,7 @@
         <v>29</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>21</v>
@@ -5924,10 +5921,10 @@
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K112" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L112" s="20"/>
       <c r="M112" s="20"/>
@@ -5949,7 +5946,7 @@
         <v>29</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>20</v>
@@ -5966,10 +5963,10 @@
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L113" s="20"/>
       <c r="M113" s="20"/>
@@ -5991,7 +5988,7 @@
         <v>29</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>21</v>
@@ -6008,10 +6005,10 @@
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L114" s="20"/>
       <c r="M114" s="20"/>
@@ -6033,7 +6030,7 @@
         <v>29</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>20</v>
@@ -6050,10 +6047,10 @@
       </c>
       <c r="I115"/>
       <c r="J115" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L115"/>
       <c r="M115"/>
@@ -6075,7 +6072,7 @@
         <v>29</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>21</v>
@@ -6092,10 +6089,10 @@
       </c>
       <c r="I116"/>
       <c r="J116" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L116"/>
       <c r="M116"/>
@@ -6117,7 +6114,7 @@
         <v>29</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>20</v>
@@ -6134,10 +6131,10 @@
       </c>
       <c r="I117"/>
       <c r="J117" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L117"/>
       <c r="M117"/>
@@ -6159,7 +6156,7 @@
         <v>29</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>21</v>
@@ -6176,10 +6173,10 @@
       </c>
       <c r="I118"/>
       <c r="J118" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L118"/>
       <c r="M118"/>
@@ -6201,7 +6198,7 @@
         <v>29</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>21</v>
@@ -6218,10 +6215,10 @@
       </c>
       <c r="I119"/>
       <c r="J119" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L119"/>
       <c r="M119"/>
@@ -6260,10 +6257,10 @@
       </c>
       <c r="I120"/>
       <c r="J120" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L120"/>
       <c r="M120"/>
@@ -6302,10 +6299,10 @@
       </c>
       <c r="I121"/>
       <c r="J121" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L121"/>
       <c r="M121"/>
@@ -6344,14 +6341,14 @@
       </c>
       <c r="I122"/>
       <c r="J122" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L122"/>
       <c r="M122" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N122" s="20">
         <v>835</v>
@@ -6388,10 +6385,10 @@
       </c>
       <c r="I123"/>
       <c r="J123" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L123"/>
       <c r="M123"/>
@@ -6413,7 +6410,7 @@
         <v>29</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>21</v>
@@ -6430,10 +6427,10 @@
       </c>
       <c r="I124"/>
       <c r="J124" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K124" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L124"/>
       <c r="M124"/>
@@ -6472,10 +6469,10 @@
       </c>
       <c r="I125"/>
       <c r="J125" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L125"/>
       <c r="M125"/>
@@ -6497,7 +6494,7 @@
         <v>29</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>21</v>
@@ -6514,10 +6511,10 @@
       </c>
       <c r="I126"/>
       <c r="J126" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L126"/>
       <c r="M126"/>
@@ -6556,10 +6553,10 @@
       </c>
       <c r="I127"/>
       <c r="J127" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L127"/>
       <c r="M127"/>
@@ -6598,10 +6595,10 @@
       </c>
       <c r="I128"/>
       <c r="J128" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L128"/>
       <c r="M128"/>
@@ -6623,7 +6620,7 @@
         <v>29</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>20</v>
@@ -6640,10 +6637,10 @@
       </c>
       <c r="I129"/>
       <c r="J129" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K129" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L129"/>
       <c r="M129"/>
@@ -6682,10 +6679,10 @@
       </c>
       <c r="I130"/>
       <c r="J130" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K130" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L130"/>
       <c r="M130"/>
@@ -6707,7 +6704,7 @@
         <v>29</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>21</v>
@@ -6724,10 +6721,10 @@
       </c>
       <c r="I131"/>
       <c r="J131" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K131" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L131"/>
       <c r="M131"/>
@@ -6749,7 +6746,7 @@
         <v>29</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>20</v>
@@ -6766,10 +6763,10 @@
       </c>
       <c r="I132"/>
       <c r="J132" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K132" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L132"/>
       <c r="M132"/>
@@ -6791,7 +6788,7 @@
         <v>29</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>20</v>
@@ -6808,10 +6805,10 @@
       </c>
       <c r="I133"/>
       <c r="J133" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K133" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L133"/>
       <c r="M133"/>
@@ -6850,10 +6847,10 @@
       </c>
       <c r="I134"/>
       <c r="J134" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K134" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L134"/>
       <c r="M134"/>
@@ -6892,10 +6889,10 @@
       </c>
       <c r="I135"/>
       <c r="J135" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K135" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L135"/>
       <c r="M135"/>
@@ -6917,7 +6914,7 @@
         <v>29</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>21</v>
@@ -6934,10 +6931,10 @@
       </c>
       <c r="I136"/>
       <c r="J136" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K136" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L136"/>
       <c r="M136"/>
@@ -6959,7 +6956,7 @@
         <v>29</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>20</v>
@@ -6976,10 +6973,10 @@
       </c>
       <c r="I137"/>
       <c r="J137" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K137" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L137"/>
       <c r="M137"/>
@@ -7001,7 +6998,7 @@
         <v>29</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>21</v>
@@ -7018,10 +7015,10 @@
       </c>
       <c r="I138"/>
       <c r="J138" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K138" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L138"/>
       <c r="M138"/>
@@ -7043,7 +7040,7 @@
         <v>29</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>21</v>
@@ -7060,10 +7057,10 @@
       </c>
       <c r="I139"/>
       <c r="J139" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K139" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L139"/>
       <c r="M139"/>
@@ -7085,7 +7082,7 @@
         <v>29</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>21</v>
@@ -7102,10 +7099,10 @@
       </c>
       <c r="I140"/>
       <c r="J140" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K140" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L140"/>
       <c r="M140"/>
@@ -7127,7 +7124,7 @@
         <v>29</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>21</v>
@@ -7144,10 +7141,10 @@
       </c>
       <c r="I141"/>
       <c r="J141" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K141" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L141"/>
       <c r="M141"/>
@@ -7169,7 +7166,7 @@
         <v>29</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>20</v>
@@ -7186,10 +7183,10 @@
       </c>
       <c r="I142"/>
       <c r="J142" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K142" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L142"/>
       <c r="M142"/>
@@ -7211,7 +7208,7 @@
         <v>29</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>20</v>
@@ -7228,10 +7225,10 @@
       </c>
       <c r="I143"/>
       <c r="J143" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K143" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L143"/>
       <c r="M143"/>
@@ -7253,7 +7250,7 @@
         <v>29</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>20</v>
@@ -7270,10 +7267,10 @@
       </c>
       <c r="I144"/>
       <c r="J144" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K144" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L144"/>
       <c r="M144"/>
@@ -7295,7 +7292,7 @@
         <v>29</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>21</v>
@@ -7312,10 +7309,10 @@
       </c>
       <c r="I145"/>
       <c r="J145" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K145" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L145"/>
       <c r="M145"/>
@@ -7337,7 +7334,7 @@
         <v>29</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>20</v>
@@ -7354,10 +7351,10 @@
       </c>
       <c r="I146"/>
       <c r="J146" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K146" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L146"/>
       <c r="M146"/>
@@ -7379,7 +7376,7 @@
         <v>29</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>21</v>
@@ -7396,10 +7393,10 @@
       </c>
       <c r="I147"/>
       <c r="J147" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K147" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L147"/>
       <c r="M147"/>
@@ -7421,7 +7418,7 @@
         <v>29</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>21</v>
@@ -7438,10 +7435,10 @@
       </c>
       <c r="I148"/>
       <c r="J148" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K148" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L148"/>
       <c r="M148"/>
@@ -7463,7 +7460,7 @@
         <v>29</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D149" s="17" t="s">
         <v>21</v>
@@ -7480,10 +7477,10 @@
       </c>
       <c r="I149" s="20"/>
       <c r="J149" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K149" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L149" s="20"/>
       <c r="M149" s="20"/>
@@ -7505,7 +7502,7 @@
         <v>29</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>21</v>
@@ -7522,10 +7519,10 @@
       </c>
       <c r="I150"/>
       <c r="J150" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K150" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L150"/>
       <c r="M150"/>
@@ -7564,10 +7561,10 @@
       </c>
       <c r="I151"/>
       <c r="J151" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K151" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L151"/>
       <c r="M151"/>
@@ -7606,10 +7603,10 @@
       </c>
       <c r="I152"/>
       <c r="J152" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K152" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L152"/>
       <c r="M152"/>
@@ -7648,10 +7645,10 @@
       </c>
       <c r="I153"/>
       <c r="J153" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K153" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L153"/>
       <c r="M153"/>
@@ -7690,10 +7687,10 @@
       </c>
       <c r="I154"/>
       <c r="J154" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K154" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L154"/>
       <c r="M154"/>
@@ -7715,7 +7712,7 @@
         <v>29</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>21</v>
@@ -7732,10 +7729,10 @@
       </c>
       <c r="I155"/>
       <c r="J155" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K155" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L155"/>
       <c r="M155"/>
@@ -7757,7 +7754,7 @@
         <v>29</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>21</v>
@@ -7774,10 +7771,10 @@
       </c>
       <c r="I156"/>
       <c r="J156" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K156" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L156"/>
       <c r="M156"/>
@@ -7816,15 +7813,15 @@
       </c>
       <c r="I157"/>
       <c r="J157" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K157" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L157"/>
       <c r="M157"/>
       <c r="N157" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O157">
         <v>28193518</v>
@@ -7841,7 +7838,7 @@
         <v>29</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>21</v>
@@ -7858,15 +7855,15 @@
       </c>
       <c r="I158"/>
       <c r="J158" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K158" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L158"/>
       <c r="M158"/>
       <c r="N158" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O158">
         <v>28193518</v>
@@ -7883,7 +7880,7 @@
         <v>29</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>21</v>
@@ -7900,15 +7897,15 @@
       </c>
       <c r="I159"/>
       <c r="J159" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K159" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L159"/>
       <c r="M159"/>
       <c r="N159" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O159">
         <v>28193518</v>
@@ -7925,7 +7922,7 @@
         <v>29</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>21</v>
@@ -7942,15 +7939,15 @@
       </c>
       <c r="I160"/>
       <c r="J160" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K160" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L160"/>
       <c r="M160"/>
       <c r="N160" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O160">
         <v>28193518</v>
@@ -7967,7 +7964,7 @@
         <v>29</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>21</v>
@@ -7984,15 +7981,15 @@
       </c>
       <c r="I161"/>
       <c r="J161" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K161" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L161"/>
       <c r="M161"/>
       <c r="N161" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O161">
         <v>28193518</v>
@@ -8009,7 +8006,7 @@
         <v>29</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>21</v>
@@ -8026,15 +8023,15 @@
       </c>
       <c r="I162"/>
       <c r="J162" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K162" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L162"/>
       <c r="M162"/>
       <c r="N162" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O162">
         <v>28193518</v>
@@ -8051,7 +8048,7 @@
         <v>29</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>21</v>
@@ -8068,15 +8065,15 @@
       </c>
       <c r="I163"/>
       <c r="J163" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K163" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L163"/>
       <c r="M163"/>
       <c r="N163" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O163">
         <v>28193518</v>
@@ -8093,7 +8090,7 @@
         <v>29</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>21</v>
@@ -8110,15 +8107,15 @@
       </c>
       <c r="I164"/>
       <c r="J164" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K164" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L164"/>
       <c r="M164"/>
       <c r="N164" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O164">
         <v>28193518</v>
@@ -8152,10 +8149,10 @@
       </c>
       <c r="I165"/>
       <c r="J165" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L165"/>
       <c r="M165"/>
@@ -8194,10 +8191,10 @@
       </c>
       <c r="I166"/>
       <c r="J166" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K166" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L166"/>
       <c r="M166"/>
@@ -8236,10 +8233,10 @@
       </c>
       <c r="I167"/>
       <c r="J167" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K167" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L167"/>
       <c r="M167"/>
@@ -8278,10 +8275,10 @@
       </c>
       <c r="I168"/>
       <c r="J168" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K168" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L168"/>
       <c r="M168"/>
@@ -8320,10 +8317,10 @@
       </c>
       <c r="I169"/>
       <c r="J169" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K169" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L169"/>
       <c r="M169"/>
@@ -8362,10 +8359,10 @@
       </c>
       <c r="I170"/>
       <c r="J170" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K170" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L170"/>
       <c r="M170"/>
@@ -8387,7 +8384,7 @@
         <v>29</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D171" s="18" t="s">
         <v>2</v>
@@ -8433,7 +8430,7 @@
         <v>29</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>2</v>
@@ -8479,7 +8476,7 @@
         <v>29</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D173" s="26" t="s">
         <v>2</v>
@@ -8525,7 +8522,7 @@
         <v>29</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D174" s="26" t="s">
         <v>2</v>
@@ -8571,7 +8568,7 @@
         <v>29</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D175" s="26" t="s">
         <v>2</v>
@@ -8617,7 +8614,7 @@
         <v>29</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D176" s="26" t="s">
         <v>2</v>
@@ -8847,7 +8844,7 @@
         <v>29</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D181" s="26" t="s">
         <v>2</v>
@@ -8939,7 +8936,7 @@
         <v>29</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D183" s="26" t="s">
         <v>2</v>
@@ -8985,7 +8982,7 @@
         <v>29</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D184" s="26" t="s">
         <v>2</v>
@@ -9031,7 +9028,7 @@
         <v>29</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D185" s="26" t="s">
         <v>2</v>
@@ -9077,7 +9074,7 @@
         <v>29</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D186" s="26" t="s">
         <v>2</v>
@@ -9169,7 +9166,7 @@
         <v>29</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D188" s="26" t="s">
         <v>2</v>
@@ -9215,7 +9212,7 @@
         <v>29</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D189" s="26" t="s">
         <v>2</v>
@@ -9261,7 +9258,7 @@
         <v>29</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D190" s="26" t="s">
         <v>2</v>
@@ -9307,7 +9304,7 @@
         <v>29</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D191" s="26" t="s">
         <v>2</v>
@@ -9353,7 +9350,7 @@
         <v>29</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D192" s="18" t="s">
         <v>20</v>
@@ -9372,10 +9369,10 @@
         <v>2</v>
       </c>
       <c r="J192" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K192" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L192" s="20"/>
       <c r="M192" s="20"/>
@@ -9397,7 +9394,7 @@
         <v>29</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D193" s="18" t="s">
         <v>20</v>
@@ -9416,10 +9413,10 @@
         <v>2</v>
       </c>
       <c r="J193" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K193" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L193" s="23"/>
       <c r="M193" s="23"/>
@@ -9441,7 +9438,7 @@
         <v>29</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D194" s="18" t="s">
         <v>20</v>
@@ -9460,10 +9457,10 @@
         <v>2</v>
       </c>
       <c r="J194" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K194" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L194" s="23"/>
       <c r="M194" s="23"/>
@@ -9485,7 +9482,7 @@
         <v>29</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D195" s="18" t="s">
         <v>20</v>
@@ -9504,10 +9501,10 @@
         <v>2</v>
       </c>
       <c r="J195" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K195" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L195" s="23"/>
       <c r="M195" s="23"/>
@@ -9529,7 +9526,7 @@
         <v>29</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D196" s="18" t="s">
         <v>20</v>
@@ -9548,10 +9545,10 @@
         <v>2</v>
       </c>
       <c r="J196" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K196" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L196" s="23"/>
       <c r="M196" s="23"/>
@@ -9573,7 +9570,7 @@
         <v>29</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D197" s="18" t="s">
         <v>20</v>
@@ -9592,10 +9589,10 @@
         <v>2</v>
       </c>
       <c r="J197" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K197" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L197" s="23"/>
       <c r="M197" s="23"/>
@@ -9617,7 +9614,7 @@
         <v>29</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D198" s="26" t="s">
         <v>21</v>
@@ -9635,10 +9632,10 @@
         <v>2</v>
       </c>
       <c r="J198" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K198" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N198" s="20">
         <v>266</v>
@@ -9655,7 +9652,7 @@
         <v>29</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D199" s="26" t="s">
         <v>21</v>
@@ -9673,10 +9670,10 @@
         <v>2</v>
       </c>
       <c r="J199" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K199" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N199" s="20">
         <v>266</v>
@@ -9693,7 +9690,7 @@
         <v>29</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D200" s="26" t="s">
         <v>20</v>
@@ -9712,10 +9709,10 @@
         <v>2</v>
       </c>
       <c r="J200" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K200" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L200"/>
       <c r="M200"/>
@@ -9737,7 +9734,7 @@
         <v>29</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D201" s="26" t="s">
         <v>20</v>
@@ -9755,10 +9752,10 @@
         <v>2</v>
       </c>
       <c r="J201" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K201" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N201" s="20">
         <v>266</v>
@@ -9775,7 +9772,7 @@
         <v>29</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D202" s="26" t="s">
         <v>21</v>
@@ -9793,10 +9790,10 @@
         <v>2</v>
       </c>
       <c r="J202" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K202" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N202" s="20">
         <v>266</v>
@@ -9813,7 +9810,7 @@
         <v>29</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D203" s="26" t="s">
         <v>20</v>
@@ -9831,10 +9828,10 @@
         <v>2</v>
       </c>
       <c r="J203" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K203" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N203" s="20">
         <v>266</v>
@@ -9851,7 +9848,7 @@
         <v>29</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D204" s="26" t="s">
         <v>21</v>
@@ -9869,10 +9866,10 @@
         <v>2</v>
       </c>
       <c r="J204" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K204" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N204" s="20">
         <v>266</v>
@@ -9889,7 +9886,7 @@
         <v>29</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D205" s="26" t="s">
         <v>21</v>
@@ -9907,10 +9904,10 @@
         <v>2</v>
       </c>
       <c r="J205" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K205" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N205" s="20">
         <v>266</v>
@@ -9927,7 +9924,7 @@
         <v>29</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D206" s="26" t="s">
         <v>21</v>
@@ -9945,10 +9942,10 @@
         <v>2</v>
       </c>
       <c r="J206" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K206" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N206" s="20">
         <v>266</v>
@@ -9965,7 +9962,7 @@
         <v>29</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D207" s="26" t="s">
         <v>21</v>
@@ -9983,10 +9980,10 @@
         <v>2</v>
       </c>
       <c r="J207" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K207" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N207" s="20">
         <v>266</v>
@@ -10003,7 +10000,7 @@
         <v>29</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D208" s="26" t="s">
         <v>21</v>
@@ -10021,10 +10018,10 @@
         <v>2</v>
       </c>
       <c r="J208" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K208" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N208" s="20">
         <v>266</v>
@@ -10041,7 +10038,7 @@
         <v>29</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D209" s="26" t="s">
         <v>21</v>
@@ -10059,10 +10056,10 @@
         <v>2</v>
       </c>
       <c r="J209" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K209" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N209" s="20">
         <v>266</v>
@@ -10079,7 +10076,7 @@
         <v>29</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D210" s="26" t="s">
         <v>21</v>
@@ -10097,10 +10094,10 @@
         <v>2</v>
       </c>
       <c r="J210" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K210" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N210" s="20">
         <v>266</v>
@@ -10249,7 +10246,7 @@
         <v>29</v>
       </c>
       <c r="C214" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D214" s="26" t="s">
         <v>2</v>
@@ -10293,7 +10290,7 @@
         <v>29</v>
       </c>
       <c r="C215" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D215" s="26" t="s">
         <v>2</v>
@@ -10337,7 +10334,7 @@
         <v>29</v>
       </c>
       <c r="C216" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D216" s="26" t="s">
         <v>2</v>
@@ -10381,7 +10378,7 @@
         <v>29</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D217" s="26" t="s">
         <v>2</v>
@@ -10425,7 +10422,7 @@
         <v>29</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D218" s="26" t="s">
         <v>2</v>
@@ -10469,7 +10466,7 @@
         <v>29</v>
       </c>
       <c r="C219" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D219" s="26" t="s">
         <v>2</v>
@@ -10513,7 +10510,7 @@
         <v>29</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D220" s="26" t="s">
         <v>2</v>
@@ -10557,7 +10554,7 @@
         <v>29</v>
       </c>
       <c r="C221" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D221" s="26" t="s">
         <v>2</v>
@@ -10601,7 +10598,7 @@
         <v>29</v>
       </c>
       <c r="C222" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D222" s="26" t="s">
         <v>2</v>
@@ -10645,7 +10642,7 @@
         <v>29</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D223" s="26" t="s">
         <v>2</v>
@@ -10865,7 +10862,7 @@
         <v>29</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D228" s="26" t="s">
         <v>2</v>
@@ -10909,7 +10906,7 @@
         <v>29</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D229" s="26" t="s">
         <v>2</v>
@@ -10953,7 +10950,7 @@
         <v>29</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D230" s="26" t="s">
         <v>2</v>
@@ -10997,7 +10994,7 @@
         <v>29</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D231" s="26" t="s">
         <v>2</v>
@@ -11041,7 +11038,7 @@
         <v>29</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D232" s="26" t="s">
         <v>2</v>
@@ -11085,7 +11082,7 @@
         <v>29</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D233" s="26" t="s">
         <v>2</v>
@@ -11129,7 +11126,7 @@
         <v>29</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D234" s="26" t="s">
         <v>2</v>
@@ -11173,7 +11170,7 @@
         <v>29</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D235" s="26" t="s">
         <v>2</v>
@@ -11217,7 +11214,7 @@
         <v>29</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D236" s="26" t="s">
         <v>2</v>
@@ -11261,7 +11258,7 @@
         <v>29</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D237" s="26" t="s">
         <v>2</v>
@@ -11312,7 +11309,7 @@
   <dimension ref="A2:I4"/>
   <sheetViews>
     <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11324,27 +11321,27 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>27</v>
@@ -11358,25 +11355,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>178</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>27</v>
